--- a/biology/Microbiologie/Turaniellidae/Turaniellidae.xlsx
+++ b/biology/Microbiologie/Turaniellidae/Turaniellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  Turaniellidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Turaniella, composé du suffixe turan (en référence à l'ancien nom de genre Turania Brodsky, 1925), et du suffixe iella, utilisé comme diminutif. Le préfixe Turan fait sans doute référence à une région d'Asie centrale dans laquelle a été découvert ce cilié, ce dernier ayant été décrit dans le Turkestan[1],[note 1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Turaniella, composé du suffixe turan (en référence à l'ancien nom de genre Turania Brodsky, 1925), et du suffixe iella, utilisé comme diminutif. Le préfixe Turan fait sans doute référence à une région d'Asie centrale dans laquelle a été découvert ce cilié, ce dernier ayant été décrit dans le Turkestan,[note 1].
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Turaniellidae ont une taille petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est allongée-ovoïde, parfois effilée vers l'arrière. Il vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec des cinétiques ventrales droites courbées vers la gauche, se tordant vers l'avant de la région buccale, parfois brusquement, pour s'étendre parallèlement à la suture antérieure. Une ou plusieurs kinés somatiques sont interrompues par le bord gauche de la cavité buccale. Les structures buccales sont situées dans la moitié antérieure de la cellule, avec un dikinétidé paroral, dont la partie antérieure est ciliée et dont la partie postérieure est constituée de kinétosomes non ciliés situés sous les extensions (en forme de doigt) de la pellicule de la paroi nervurée, et trois polykinétidés oraux allongés. Leur macronoyau est globulaire à ellipsoïde allongé. Micronoyau, vacuole contractile et cytoprocte (zone anale) sont présents. Ces ciliés sont bactérivores, mais avec un cycle de vie dimorphique chez Turaniella, genre qui présente une forme macrostome carnivore envers d'autres ciliés[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Turaniellidae ont une taille petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est allongée-ovoïde, parfois effilée vers l'arrière. Il vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec des cinétiques ventrales droites courbées vers la gauche, se tordant vers l'avant de la région buccale, parfois brusquement, pour s'étendre parallèlement à la suture antérieure. Une ou plusieurs kinés somatiques sont interrompues par le bord gauche de la cavité buccale. Les structures buccales sont situées dans la moitié antérieure de la cellule, avec un dikinétidé paroral, dont la partie antérieure est ciliée et dont la partie postérieure est constituée de kinétosomes non ciliés situés sous les extensions (en forme de doigt) de la pellicule de la paroi nervurée, et trois polykinétidés oraux allongés. Leur macronoyau est globulaire à ellipsoïde allongé. Micronoyau, vacuole contractile et cytoprocte (zone anale) sont présents. Ces ciliés sont bactérivores, mais avec un cycle de vie dimorphique chez Turaniella, genre qui présente une forme macrostome carnivore envers d'autres ciliés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Turaniellidae vivent en eau douce[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Turaniellidae vivent en eau douce.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 novembre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 novembre 2023) :
 Paracolpidium Ganner &amp; Foissner, 1989
 Turaniella Corliss, 1960 genre type
 Genre synonyme : Turania Brodsky, 1925
-Espèce type : Turaniella vitrea (Brodsky, 1925) Corliss, 1960[1]
-Selon Lynn (2010)[2] :
+Espèce type : Turaniella vitrea (Brodsky, 1925) Corliss, 1960
+Selon Lynn (2010) :
 Colpidium Stein, 1860
 Dexiostoma Jankowski, 1967
 Paracolpidium Ganner &amp; Foissner, 1989
@@ -643,10 +663,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est  Turaniellidae Didier, 1971[4].
-D'après E. Aescht, Corliss a substitué le nom du genre type Turaniella, au nom ambigu Turania Brodsky, 1925, lequel était déjà utilisé pour désigner des insectes lépidoptères (Turania Ragonot, 1890 et Turania Bethube-Baker, 1914)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est  Turaniellidae Didier, 1971.
+D'après E. Aescht, Corliss a substitué le nom du genre type Turaniella, au nom ambigu Turania Brodsky, 1925, lequel était déjà utilisé pour désigner des insectes lépidoptères (Turania Ragonot, 1890 et Turania Bethube-Baker, 1914).
 </t>
         </is>
       </c>
